--- a/analysis/mails_01/P03_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P03_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -60,156 +60,216 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenspaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biowide - Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amager fælled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7027316150901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5676869441803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fælledparken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7013664840359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5650940276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7010452762382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5656940276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7006875981703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5657332987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7019876916182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5703596141236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7044300053526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5665499987794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7253693955922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.587888156452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWT001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7275995983593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355689257637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyssegaardsparken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD001</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00457B</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dyssegaardsparken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenspaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biowide - Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amager fælled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fælledparken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UWT001</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00458</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7275724811666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5356369429603</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00459</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7271980743569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.535210727616</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD003</t>
   </si>
   <si>
@@ -219,6 +279,12 @@
     <t xml:space="preserve">2017-11-07</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6813088603381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.611565485287</t>
+  </si>
+  <si>
     <t xml:space="preserve">christiania</t>
   </si>
   <si>
@@ -234,12 +300,24 @@
     <t xml:space="preserve">MFD00466</t>
   </si>
   <si>
+    <t xml:space="preserve">55.681045316448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115737834345</t>
+  </si>
+  <si>
     <t xml:space="preserve">FC_003</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00467</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6766937764136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6199856257623</t>
+  </si>
+  <si>
     <t xml:space="preserve">amager</t>
   </si>
   <si>
@@ -249,18 +327,36 @@
     <t xml:space="preserve">MFD00468</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6774513731513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6196630545984</t>
+  </si>
+  <si>
     <t xml:space="preserve">IA_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00469</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6757528260579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6212403834344</t>
+  </si>
+  <si>
     <t xml:space="preserve">IA_003</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00470</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6962497927409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6084559699431</t>
+  </si>
+  <si>
     <t xml:space="preserve">refshaleøen</t>
   </si>
   <si>
@@ -270,18 +366,36 @@
     <t xml:space="preserve">MFD00471</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6962679324125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6082474680907</t>
+  </si>
+  <si>
     <t xml:space="preserve">IR_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00472</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6954921208553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6104607276153</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC_001</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00473</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6901527882015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6168452411069</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP_001</t>
   </si>
   <si>
@@ -291,6 +405,12 @@
     <t xml:space="preserve">2017-11-09</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6795830617624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5449785411067</t>
+  </si>
+  <si>
     <t xml:space="preserve">frederiksberg</t>
   </si>
   <si>
@@ -300,30 +420,60 @@
     <t xml:space="preserve">MFD00475</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6796195158935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5449618411067</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00476</t>
   </si>
   <si>
+    <t xml:space="preserve">55.679657417514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5450225699427</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF_003</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00477</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6796391107203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5450499987788</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF_004</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00478</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6797513681722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5450214564509</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF_005</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00479</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6412438312149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124940276139</t>
+  </si>
+  <si>
     <t xml:space="preserve">valbyparken</t>
   </si>
   <si>
@@ -333,36 +483,72 @@
     <t xml:space="preserve">MFD00480</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6416150258254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5166429141221</t>
+  </si>
+  <si>
     <t xml:space="preserve">PV_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00481</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6409696174739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5173523257615</t>
+  </si>
+  <si>
     <t xml:space="preserve">PV_003</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00482</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6407150284685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175666987778</t>
+  </si>
+  <si>
     <t xml:space="preserve">PV_004</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00483</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6395559444945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177178122696</t>
+  </si>
+  <si>
     <t xml:space="preserve">PV_005</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00484</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6370089836159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182081969254</t>
+  </si>
+  <si>
     <t xml:space="preserve">PV_006</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00485</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6294559632256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4357511122694</t>
+  </si>
+  <si>
     <t xml:space="preserve">vestvolden</t>
   </si>
   <si>
@@ -372,12 +558,24 @@
     <t xml:space="preserve">MFD00486</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6294317616025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4365070834333</t>
+  </si>
+  <si>
     <t xml:space="preserve">PVV_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00487</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6293892893925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.437119129466</t>
+  </si>
+  <si>
     <t xml:space="preserve">PVV_003</t>
   </si>
   <si>
@@ -387,6 +585,12 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6628575056818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6399607287436</t>
+  </si>
+  <si>
     <t xml:space="preserve">city_pond</t>
   </si>
   <si>
@@ -414,30 +618,60 @@
     <t xml:space="preserve">MFD00491</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6625514540977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6391973177146</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAS_002</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00492</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6623907575603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6353345122702</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKAS_003</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00493</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6621726025423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6350429141226</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAS_004</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00494</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6621012768156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6339678122701</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAS_005</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00495</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6466240941205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6439963545977</t>
+  </si>
+  <si>
     <t xml:space="preserve">10-øren</t>
   </si>
   <si>
@@ -445,6 +679,12 @@
   </si>
   <si>
     <t xml:space="preserve">MFD00496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6469150102599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432607276141</t>
   </si>
   <si>
     <t xml:space="preserve">PAS_007</t>
@@ -523,7 +763,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,11 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -553,11 +788,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,255 +1139,255 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.7275995983593</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.5355689257637</v>
-      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1164,1942 +1398,1970 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55.7027316150901</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.5676869441803</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55.7013664840359</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12.5650940276154</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55.7010452762382</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.5656940276154</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.7006875981703</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.5657332987793</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55.7019876916182</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.5703596141236</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55.7044300053526</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.5665499987794</v>
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="n">
-        <v>55.7253693955922</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.587888156452</v>
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="n">
-        <v>55.7275724811666</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.5356369429603</v>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="n">
-        <v>55.7271980743569</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.535210727616</v>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="n">
-        <v>55.6813088603381</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.611565485287</v>
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="n">
-        <v>55.6813088603381</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.611565485287</v>
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.681045316448</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.6115737834345</v>
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="n">
-        <v>55.6766937764136</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.6199856257623</v>
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="n">
-        <v>55.6774513731513</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.6196630545984</v>
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="n">
-        <v>55.6757528260579</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12.6212403834344</v>
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="n">
-        <v>55.6962497927409</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.6084559699431</v>
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="n">
-        <v>55.6962679324125</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.6082474680907</v>
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>55.6954921208553</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.6104607276153</v>
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="n">
-        <v>55.6901527882015</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.6168452411069</v>
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="n">
-        <v>55.6795830617624</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12.5449785411067</v>
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="n">
-        <v>55.6796195158935</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.5449618411067</v>
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="n">
-        <v>55.679657417514</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.5450225699427</v>
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="n">
-        <v>55.6796391107203</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12.5450499987788</v>
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55.6797513681722</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.5450214564509</v>
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="n">
-        <v>55.6412438312149</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.5124940276139</v>
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="n">
-        <v>55.6416150258254</v>
-      </c>
-      <c r="E35" t="n">
-        <v>12.5166429141221</v>
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N35" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="n">
-        <v>55.6409696174739</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.5173523257615</v>
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="n">
-        <v>55.6407150284685</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.5175666987778</v>
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" t="n">
-        <v>55.6395559444945</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.5177178122696</v>
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N38" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="n">
-        <v>55.6370089836159</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.5182081969254</v>
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="n">
-        <v>55.6294559632256</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.4357511122694</v>
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N40" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.6294317616025</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.4365070834333</v>
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="n">
-        <v>55.6293892893925</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.437119129466</v>
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="n">
-        <v>55.6628575056818</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.6399607287436</v>
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="N43" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="n">
-        <v>55.6625514540977</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.6391973177146</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N44" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" t="n">
-        <v>55.6623907575603</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.6353345122702</v>
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="M45" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="N45" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="n">
-        <v>55.6621726025423</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.6350429141226</v>
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="L46" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="M46" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="N46" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s">
         <v>39</v>
       </c>
-      <c r="D47" t="n">
-        <v>55.6621012768156</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.6339678122701</v>
-      </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N47" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
         <v>39</v>
       </c>
-      <c r="D48" t="n">
-        <v>55.6466240941205</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.6439963545977</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="n">
-        <v>55.6469150102599</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.6432607276141</v>
-      </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N49" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3118,10 +3380,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -3129,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
@@ -3137,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -3145,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
@@ -3153,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -3161,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -3169,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -3177,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
@@ -3185,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -3193,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -3201,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -3209,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
@@ -3217,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -3225,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
@@ -3233,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
